--- a/Basic assessment/yeastGEM_v9__46__0__46__0_sub_use.xlsx
+++ b/Basic assessment/yeastGEM_v9__46__0__46__0_sub_use.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_research\yeast_GEM_multi_omics_analysis\Figure2a_2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_research\yeast_GEM_multi_omics_analysis\Basic assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D26BF0-96E3-4FE1-A647-614A52201AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E650AB71-CCF1-458E-AE70-846E9C7B5E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20925" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="1560" windowWidth="18810" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,9 +763,6 @@
     <t>s_0946</t>
   </si>
   <si>
-    <t>s_3759</t>
-  </si>
-  <si>
     <t>s_0962</t>
   </si>
   <si>
@@ -1144,6 +1141,9 @@
   <si>
     <t>raffinose</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_0955</t>
   </si>
 </sst>
 </file>
@@ -1518,14 +1518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="O145" sqref="O145"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -1555,13 +1557,13 @@
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1575,16 +1577,16 @@
         <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1595,13 +1597,13 @@
         <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1615,13 +1617,13 @@
         <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1635,13 +1637,13 @@
         <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1655,13 +1657,13 @@
         <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1675,16 +1677,16 @@
         <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1695,16 +1697,16 @@
         <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1715,16 +1717,16 @@
         <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1735,16 +1737,16 @@
         <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1755,16 +1757,16 @@
         <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1775,16 +1777,16 @@
         <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1795,13 +1797,13 @@
         <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1815,16 +1817,16 @@
         <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1835,16 +1837,16 @@
         <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1855,13 +1857,13 @@
         <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1869,22 +1871,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
         <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1895,13 +1897,13 @@
         <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1915,16 +1917,16 @@
         <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1935,16 +1937,16 @@
         <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1955,16 +1957,16 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1975,16 +1977,16 @@
         <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1995,16 +1997,16 @@
         <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2015,16 +2017,16 @@
         <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2035,16 +2037,16 @@
         <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F26" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2055,16 +2057,16 @@
         <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2075,13 +2077,13 @@
         <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -2095,16 +2097,16 @@
         <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F29" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2115,16 +2117,16 @@
         <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2135,16 +2137,16 @@
         <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F31" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2155,13 +2157,13 @@
         <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -2175,13 +2177,13 @@
         <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -2195,13 +2197,13 @@
         <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -2215,13 +2217,13 @@
         <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -2235,13 +2237,13 @@
         <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -2255,13 +2257,13 @@
         <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -2275,13 +2277,13 @@
         <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -2295,13 +2297,13 @@
         <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -2315,16 +2317,16 @@
         <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2335,13 +2337,13 @@
         <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -2355,16 +2357,16 @@
         <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2375,13 +2377,13 @@
         <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -2395,16 +2397,16 @@
         <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2415,16 +2417,16 @@
         <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2435,13 +2437,13 @@
         <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -2455,13 +2457,13 @@
         <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -2475,13 +2477,13 @@
         <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2495,16 +2497,16 @@
         <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2515,13 +2517,13 @@
         <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -2535,13 +2537,13 @@
         <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -2555,16 +2557,16 @@
         <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2575,13 +2577,13 @@
         <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2595,13 +2597,13 @@
         <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2615,13 +2617,13 @@
         <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2635,16 +2637,16 @@
         <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2655,16 +2657,16 @@
         <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F57" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2675,13 +2677,13 @@
         <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2695,13 +2697,13 @@
         <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2715,13 +2717,13 @@
         <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2735,13 +2737,13 @@
         <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2755,13 +2757,13 @@
         <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2775,16 +2777,16 @@
         <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F63" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2795,16 +2797,16 @@
         <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F64" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2815,16 +2817,16 @@
         <v>242</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F65" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2835,13 +2837,13 @@
         <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2855,16 +2857,16 @@
         <v>244</v>
       </c>
       <c r="D67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2875,13 +2877,13 @@
         <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -2895,13 +2897,13 @@
         <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2912,19 +2914,19 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F70" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2932,16 +2934,16 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="D71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -2952,16 +2954,16 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -2972,16 +2974,16 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2992,19 +2994,19 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F74" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3012,16 +3014,16 @@
         <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -3032,19 +3034,19 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3052,16 +3054,16 @@
         <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -3072,19 +3074,19 @@
         <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F78" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3092,19 +3094,19 @@
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F79" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3112,19 +3114,19 @@
         <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F80" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3132,19 +3134,19 @@
         <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3152,19 +3154,19 @@
         <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F82" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3172,13 +3174,13 @@
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -3189,19 +3191,19 @@
         <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3209,16 +3211,16 @@
         <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -3229,19 +3231,19 @@
         <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F86" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3249,16 +3251,16 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -3269,19 +3271,19 @@
         <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F88" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3289,16 +3291,16 @@
         <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -3309,19 +3311,19 @@
         <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F90" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3329,16 +3331,16 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E91" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -3349,19 +3351,19 @@
         <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3369,16 +3371,16 @@
         <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -3389,19 +3391,19 @@
         <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E94" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3409,16 +3411,16 @@
         <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -3429,19 +3431,19 @@
         <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E96" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F96" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3449,16 +3451,16 @@
         <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -3469,19 +3471,19 @@
         <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F98" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3489,16 +3491,16 @@
         <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D99" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -3509,19 +3511,19 @@
         <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F100" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3529,19 +3531,19 @@
         <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3549,16 +3551,16 @@
         <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -3569,19 +3571,19 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3589,16 +3591,16 @@
         <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D104" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -3609,19 +3611,19 @@
         <v>85</v>
       </c>
       <c r="C105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F105" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3629,16 +3631,16 @@
         <v>85</v>
       </c>
       <c r="C106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -3649,19 +3651,19 @@
         <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E107" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F107" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3669,16 +3671,16 @@
         <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F108" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -3689,16 +3691,16 @@
         <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E109" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F109" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -3709,19 +3711,19 @@
         <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3729,19 +3731,19 @@
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F111" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3749,19 +3751,19 @@
         <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F112" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3769,16 +3771,16 @@
         <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F113" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -3789,19 +3791,19 @@
         <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F114" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3809,19 +3811,19 @@
         <v>91</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E115" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F115" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3829,13 +3831,13 @@
         <v>92</v>
       </c>
       <c r="C116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -3846,16 +3848,16 @@
         <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -3866,16 +3868,16 @@
         <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E118" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -3886,19 +3888,19 @@
         <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F119" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3906,16 +3908,16 @@
         <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F120" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -3926,19 +3928,19 @@
         <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E121" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F121" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3946,19 +3948,19 @@
         <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F122" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3966,19 +3968,19 @@
         <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F123" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3986,16 +3988,16 @@
         <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -4006,19 +4008,19 @@
         <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F125" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4026,19 +4028,19 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F126" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4046,16 +4048,16 @@
         <v>102</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -4066,19 +4068,19 @@
         <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F128" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4086,16 +4088,16 @@
         <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E129" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F129" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -4106,16 +4108,16 @@
         <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -4126,16 +4128,16 @@
         <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -4146,19 +4148,19 @@
         <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D132" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E132" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F132" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4166,19 +4168,19 @@
         <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D133" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F133" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4186,13 +4188,13 @@
         <v>108</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -4203,19 +4205,19 @@
         <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E135" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F135" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4223,16 +4225,16 @@
         <v>109</v>
       </c>
       <c r="C136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E136" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F136" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -4243,19 +4245,19 @@
         <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F137" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4263,19 +4265,19 @@
         <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F138" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4283,19 +4285,19 @@
         <v>112</v>
       </c>
       <c r="C139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F139" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4303,16 +4305,16 @@
         <v>113</v>
       </c>
       <c r="C140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -4323,19 +4325,19 @@
         <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E141" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4343,19 +4345,19 @@
         <v>114</v>
       </c>
       <c r="C142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D142" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F142" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4363,16 +4365,16 @@
         <v>115</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D143" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E143" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F143" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -4383,16 +4385,16 @@
         <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E144" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F144" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -4403,16 +4405,16 @@
         <v>117</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E145" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -4423,16 +4425,16 @@
         <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F146" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -4440,19 +4442,19 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -4463,16 +4465,16 @@
         <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D148" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F148" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -4483,19 +4485,19 @@
         <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E149" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F149" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -4503,16 +4505,16 @@
         <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F150" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -4523,16 +4525,16 @@
         <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D151" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F151" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -4543,16 +4545,16 @@
         <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -4563,19 +4565,19 @@
         <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F153" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -4583,19 +4585,19 @@
         <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F154" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -4603,19 +4605,19 @@
         <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F155" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -4623,19 +4625,19 @@
         <v>126</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F156" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -4643,16 +4645,16 @@
         <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D157" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -4663,19 +4665,19 @@
         <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D158" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F158" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -4683,19 +4685,19 @@
         <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D159" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F159" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -4703,16 +4705,16 @@
         <v>128</v>
       </c>
       <c r="C160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -4723,16 +4725,16 @@
         <v>129</v>
       </c>
       <c r="C161" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F161" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -4743,19 +4745,19 @@
         <v>130</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F162" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -4763,19 +4765,19 @@
         <v>130</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D163" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F163" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -4783,19 +4785,19 @@
         <v>131</v>
       </c>
       <c r="C164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D164" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E164" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F164" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -4803,16 +4805,16 @@
         <v>132</v>
       </c>
       <c r="C165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E165" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F165" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -4823,19 +4825,19 @@
         <v>133</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F166" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -4843,16 +4845,16 @@
         <v>133</v>
       </c>
       <c r="C167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D167" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F167" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -4863,16 +4865,16 @@
         <v>134</v>
       </c>
       <c r="C168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E168" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F168" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -4883,16 +4885,16 @@
         <v>135</v>
       </c>
       <c r="C169" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E169" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F169" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -4903,19 +4905,19 @@
         <v>136</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E170" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F170" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -4923,13 +4925,13 @@
         <v>137</v>
       </c>
       <c r="C171" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E171" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -4940,19 +4942,19 @@
         <v>138</v>
       </c>
       <c r="C172" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E172" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F172" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -4960,19 +4962,19 @@
         <v>138</v>
       </c>
       <c r="C173" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E173" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F173" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -4980,19 +4982,19 @@
         <v>139</v>
       </c>
       <c r="C174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D174" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E174" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F174" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -5000,19 +5002,19 @@
         <v>140</v>
       </c>
       <c r="C175" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D175" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F175" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -5020,19 +5022,19 @@
         <v>141</v>
       </c>
       <c r="C176" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D176" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E176" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F176" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -5040,19 +5042,19 @@
         <v>142</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E177" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F177" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -5060,19 +5062,19 @@
         <v>143</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E178" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F178" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -5080,19 +5082,19 @@
         <v>144</v>
       </c>
       <c r="C179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E179" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F179" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -5100,19 +5102,19 @@
         <v>145</v>
       </c>
       <c r="C180" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D180" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F180" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -5120,19 +5122,19 @@
         <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D181" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E181" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F181" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -5140,19 +5142,19 @@
         <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D182" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E182" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F182" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -5160,19 +5162,19 @@
         <v>148</v>
       </c>
       <c r="C183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D183" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E183" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F183" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -5180,19 +5182,19 @@
         <v>149</v>
       </c>
       <c r="C184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E184" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F184" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -5200,19 +5202,19 @@
         <v>150</v>
       </c>
       <c r="C185" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D185" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F185" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -5220,19 +5222,19 @@
         <v>151</v>
       </c>
       <c r="C186" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F186" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -5240,19 +5242,19 @@
         <v>152</v>
       </c>
       <c r="C187" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D187" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F187" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -5260,19 +5262,19 @@
         <v>153</v>
       </c>
       <c r="C188" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D188" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -5280,19 +5282,19 @@
         <v>154</v>
       </c>
       <c r="C189" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D189" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -5300,19 +5302,19 @@
         <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D190" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F190" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -5320,19 +5322,19 @@
         <v>156</v>
       </c>
       <c r="C191" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D191" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -5340,19 +5342,19 @@
         <v>157</v>
       </c>
       <c r="C192" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D192" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -5360,19 +5362,19 @@
         <v>158</v>
       </c>
       <c r="C193" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -5380,19 +5382,19 @@
         <v>159</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D194" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -5400,19 +5402,19 @@
         <v>159</v>
       </c>
       <c r="C195" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -5420,19 +5422,19 @@
         <v>160</v>
       </c>
       <c r="C196" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D196" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -5440,19 +5442,19 @@
         <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D197" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F197" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -5460,19 +5462,19 @@
         <v>162</v>
       </c>
       <c r="C198" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -5480,19 +5482,19 @@
         <v>163</v>
       </c>
       <c r="C199" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D199" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F199" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -5500,19 +5502,19 @@
         <v>164</v>
       </c>
       <c r="C200" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -5520,19 +5522,19 @@
         <v>165</v>
       </c>
       <c r="C201" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F201" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -5540,19 +5542,19 @@
         <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F202" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -5560,19 +5562,19 @@
         <v>167</v>
       </c>
       <c r="C203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D203" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E203" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -5580,16 +5582,16 @@
         <v>168</v>
       </c>
       <c r="C204" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -5600,19 +5602,19 @@
         <v>169</v>
       </c>
       <c r="C205" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D205" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E205" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F205" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -5620,19 +5622,19 @@
         <v>170</v>
       </c>
       <c r="C206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E206" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F206" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -5640,16 +5642,16 @@
         <v>171</v>
       </c>
       <c r="C207" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D207" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E207" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -5657,16 +5659,16 @@
         <v>172</v>
       </c>
       <c r="C208" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D208" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E208" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F208" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -5677,19 +5679,19 @@
         <v>173</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E209" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F209" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -5697,16 +5699,16 @@
         <v>174</v>
       </c>
       <c r="C210" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D210" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E210" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F210" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -5717,19 +5719,19 @@
         <v>175</v>
       </c>
       <c r="C211" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E211" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F211" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -5737,16 +5739,16 @@
         <v>176</v>
       </c>
       <c r="C212" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E212" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F212" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -5757,16 +5759,16 @@
         <v>177</v>
       </c>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D213" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F213" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -5777,16 +5779,16 @@
         <v>178</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D214" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E214" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F214" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -5797,19 +5799,19 @@
         <v>179</v>
       </c>
       <c r="C215" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E215" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F215" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -5817,16 +5819,16 @@
         <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D216" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E216" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F216" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -5837,19 +5839,19 @@
         <v>181</v>
       </c>
       <c r="C217" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E217" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F217" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -5857,16 +5859,16 @@
         <v>182</v>
       </c>
       <c r="C218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D218" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E218" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F218" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -5877,26 +5879,20 @@
         <v>183</v>
       </c>
       <c r="C219" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D219" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E219" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F219" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D219" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D219" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
